--- a/Code/Results/Cases/Case_4_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017165226613922</v>
+        <v>1.040682962810709</v>
       </c>
       <c r="D2">
-        <v>1.033372136953664</v>
+        <v>1.044650579505955</v>
       </c>
       <c r="E2">
-        <v>1.03432280041582</v>
+        <v>1.054481022958382</v>
       </c>
       <c r="F2">
-        <v>1.040120469762631</v>
+        <v>1.062391396068169</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054568781673968</v>
+        <v>1.044160574827285</v>
       </c>
       <c r="J2">
-        <v>1.038844375695794</v>
+        <v>1.0457682464687</v>
       </c>
       <c r="K2">
-        <v>1.044385327853172</v>
+        <v>1.047421032056998</v>
       </c>
       <c r="L2">
-        <v>1.045323809417871</v>
+        <v>1.057224115175593</v>
       </c>
       <c r="M2">
-        <v>1.051047788389205</v>
+        <v>1.065112870021561</v>
       </c>
       <c r="N2">
-        <v>1.016663795367947</v>
+        <v>1.01915482959033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021310024912909</v>
+        <v>1.041556920506355</v>
       </c>
       <c r="D3">
-        <v>1.036502097821752</v>
+        <v>1.045325319583083</v>
       </c>
       <c r="E3">
-        <v>1.038167825302871</v>
+        <v>1.055347744267757</v>
       </c>
       <c r="F3">
-        <v>1.044317298837935</v>
+        <v>1.063344579854361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056043578480219</v>
+        <v>1.044411456751314</v>
       </c>
       <c r="J3">
-        <v>1.041236146540668</v>
+        <v>1.046288299394156</v>
       </c>
       <c r="K3">
-        <v>1.046688295735104</v>
+        <v>1.047907409356284</v>
       </c>
       <c r="L3">
-        <v>1.048334566633822</v>
+        <v>1.057903951514892</v>
       </c>
       <c r="M3">
-        <v>1.05441287482888</v>
+        <v>1.06588051273279</v>
       </c>
       <c r="N3">
-        <v>1.017470825928951</v>
+        <v>1.019329123768549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023940360689531</v>
+        <v>1.042122916122461</v>
       </c>
       <c r="D4">
-        <v>1.038490265130453</v>
+        <v>1.045762237462051</v>
       </c>
       <c r="E4">
-        <v>1.040612939774843</v>
+        <v>1.05590942465319</v>
       </c>
       <c r="F4">
-        <v>1.046986235621357</v>
+        <v>1.063962349535457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056969609085446</v>
+        <v>1.044572718385198</v>
       </c>
       <c r="J4">
-        <v>1.042750880818582</v>
+        <v>1.046624637172694</v>
       </c>
       <c r="K4">
-        <v>1.048145322331997</v>
+        <v>1.048221762584779</v>
       </c>
       <c r="L4">
-        <v>1.05024471841703</v>
+        <v>1.058344061627675</v>
       </c>
       <c r="M4">
-        <v>1.056548816162901</v>
+        <v>1.066377597984379</v>
       </c>
       <c r="N4">
-        <v>1.017981796071601</v>
+        <v>1.019441801398388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025034197471304</v>
+        <v>1.042360975840898</v>
       </c>
       <c r="D5">
-        <v>1.039317457976384</v>
+        <v>1.045945991837236</v>
       </c>
       <c r="E5">
-        <v>1.041630930220444</v>
+        <v>1.05614575791192</v>
       </c>
       <c r="F5">
-        <v>1.048097444866194</v>
+        <v>1.064222296785902</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057352295535538</v>
+        <v>1.044640254537769</v>
       </c>
       <c r="J5">
-        <v>1.043380016761965</v>
+        <v>1.046765991508257</v>
       </c>
       <c r="K5">
-        <v>1.048750129089408</v>
+        <v>1.04835382809211</v>
       </c>
       <c r="L5">
-        <v>1.051038914281315</v>
+        <v>1.058529133027847</v>
       </c>
       <c r="M5">
-        <v>1.057437131352345</v>
+        <v>1.066586659600242</v>
       </c>
       <c r="N5">
-        <v>1.018193989950075</v>
+        <v>1.019489146157459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025217167726153</v>
+        <v>1.042400953829992</v>
       </c>
       <c r="D6">
-        <v>1.039455848289492</v>
+        <v>1.045976849305916</v>
       </c>
       <c r="E6">
-        <v>1.041801281941449</v>
+        <v>1.056185451154301</v>
       </c>
       <c r="F6">
-        <v>1.04828339813337</v>
+        <v>1.064265956917858</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057416166465578</v>
+        <v>1.04465157899136</v>
       </c>
       <c r="J6">
-        <v>1.043485208529145</v>
+        <v>1.046789723025254</v>
       </c>
       <c r="K6">
-        <v>1.048851231559845</v>
+        <v>1.048375997244672</v>
       </c>
       <c r="L6">
-        <v>1.05117175290953</v>
+        <v>1.058560210172417</v>
       </c>
       <c r="M6">
-        <v>1.057585726862049</v>
+        <v>1.066621767025586</v>
       </c>
       <c r="N6">
-        <v>1.018229466724602</v>
+        <v>1.019497094077746</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023955023049731</v>
+        <v>1.042126096637208</v>
       </c>
       <c r="D7">
-        <v>1.038501351711375</v>
+        <v>1.045764692507775</v>
       </c>
       <c r="E7">
-        <v>1.040626580828394</v>
+        <v>1.055912581754755</v>
       </c>
       <c r="F7">
-        <v>1.047001125662407</v>
+        <v>1.063965822034549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056974748367131</v>
+        <v>1.044573621822149</v>
       </c>
       <c r="J7">
-        <v>1.042759317173422</v>
+        <v>1.046626526122878</v>
       </c>
       <c r="K7">
-        <v>1.048153433882463</v>
+        <v>1.04822352760004</v>
       </c>
       <c r="L7">
-        <v>1.050255364858239</v>
+        <v>1.05834653436944</v>
       </c>
       <c r="M7">
-        <v>1.056560723343741</v>
+        <v>1.066380391135896</v>
       </c>
       <c r="N7">
-        <v>1.017984641611358</v>
+        <v>1.019442434119797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018576918674742</v>
+        <v>1.040978219369041</v>
       </c>
       <c r="D8">
-        <v>1.03443776669981</v>
+        <v>1.044878544735816</v>
       </c>
       <c r="E8">
-        <v>1.03563132428138</v>
+        <v>1.054773757769902</v>
       </c>
       <c r="F8">
-        <v>1.041548701627863</v>
+        <v>1.062713321807941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055073139898173</v>
+        <v>1.044245583865913</v>
       </c>
       <c r="J8">
-        <v>1.039659632962006</v>
+        <v>1.045944035601471</v>
       </c>
       <c r="K8">
-        <v>1.045170618600922</v>
+        <v>1.047585480534606</v>
       </c>
       <c r="L8">
-        <v>1.046349344031914</v>
+        <v>1.057453824676187</v>
       </c>
       <c r="M8">
-        <v>1.052193811408893</v>
+        <v>1.065372221215492</v>
       </c>
       <c r="N8">
-        <v>1.016938904796697</v>
+        <v>1.019213754070303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008685544533322</v>
+        <v>1.038959297665824</v>
       </c>
       <c r="D9">
-        <v>1.026980795702308</v>
+        <v>1.043319526598338</v>
       </c>
       <c r="E9">
-        <v>1.026485170551545</v>
+        <v>1.052773612133121</v>
       </c>
       <c r="F9">
-        <v>1.031565913898601</v>
+        <v>1.060513954497015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051498750238572</v>
+        <v>1.043659331204626</v>
       </c>
       <c r="J9">
-        <v>1.033935278391006</v>
+        <v>1.044740135965017</v>
       </c>
       <c r="K9">
-        <v>1.039650786147566</v>
+        <v>1.046458410569969</v>
       </c>
       <c r="L9">
-        <v>1.039162677325277</v>
+        <v>1.055882425892225</v>
       </c>
       <c r="M9">
-        <v>1.044166805267908</v>
+        <v>1.063598584953197</v>
       </c>
       <c r="N9">
-        <v>1.015006786864604</v>
+        <v>1.018810024849428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001784398291305</v>
+        <v>1.037615972418149</v>
       </c>
       <c r="D10">
-        <v>1.021792370790556</v>
+        <v>1.042281944745957</v>
       </c>
       <c r="E10">
-        <v>1.020133628867694</v>
+        <v>1.051444717069088</v>
       </c>
       <c r="F10">
-        <v>1.024633076581847</v>
+        <v>1.059052978804896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048955085508574</v>
+        <v>1.043263019212566</v>
       </c>
       <c r="J10">
-        <v>1.029927397704979</v>
+        <v>1.043936749743083</v>
       </c>
       <c r="K10">
-        <v>1.035778997760147</v>
+        <v>1.045705247802732</v>
       </c>
       <c r="L10">
-        <v>1.034148636926915</v>
+        <v>1.054836026120661</v>
       </c>
       <c r="M10">
-        <v>1.038571374534345</v>
+        <v>1.062418184480019</v>
       </c>
       <c r="N10">
-        <v>1.013653619066955</v>
+        <v>1.018540381595308</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9987165483358165</v>
+        <v>1.037034935990106</v>
       </c>
       <c r="D11">
-        <v>1.019489962913391</v>
+        <v>1.041833097784394</v>
       </c>
       <c r="E11">
-        <v>1.017317583407091</v>
+        <v>1.050870385973797</v>
       </c>
       <c r="F11">
-        <v>1.021559099489888</v>
+        <v>1.05842162950438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047813010944604</v>
+        <v>1.043090121376833</v>
       </c>
       <c r="J11">
-        <v>1.028142818043245</v>
+        <v>1.043588701362182</v>
       </c>
       <c r="K11">
-        <v>1.034053454739678</v>
+        <v>1.045378710924994</v>
       </c>
       <c r="L11">
-        <v>1.031920141744166</v>
+        <v>1.054383224004327</v>
       </c>
       <c r="M11">
-        <v>1.036085582030311</v>
+        <v>1.061907555175213</v>
       </c>
       <c r="N11">
-        <v>1.013051046865329</v>
+        <v>1.01842351187532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975644313539945</v>
+        <v>1.036819209456296</v>
       </c>
       <c r="D12">
-        <v>1.018625975829014</v>
+        <v>1.041666442598998</v>
       </c>
       <c r="E12">
-        <v>1.016261194522082</v>
+        <v>1.050657219030233</v>
       </c>
       <c r="F12">
-        <v>1.020405909163234</v>
+        <v>1.058187309543609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047382456212492</v>
+        <v>1.043025705966549</v>
       </c>
       <c r="J12">
-        <v>1.027472227702362</v>
+        <v>1.04345939517601</v>
       </c>
       <c r="K12">
-        <v>1.033404824820532</v>
+        <v>1.045257359715717</v>
       </c>
       <c r="L12">
-        <v>1.031083348846042</v>
+        <v>1.054215078865937</v>
       </c>
       <c r="M12">
-        <v>1.035152335172773</v>
+        <v>1.061717959976923</v>
       </c>
       <c r="N12">
-        <v>1.012824615036076</v>
+        <v>1.018380084774702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9978121440814595</v>
+        <v>1.03686547915334</v>
       </c>
       <c r="D13">
-        <v>1.018811707379781</v>
+        <v>1.041702187665354</v>
       </c>
       <c r="E13">
-        <v>1.016488271816168</v>
+        <v>1.050702936562787</v>
       </c>
       <c r="F13">
-        <v>1.020653796666756</v>
+        <v>1.058237563289762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047475102299918</v>
+        <v>1.043039532034193</v>
       </c>
       <c r="J13">
-        <v>1.027616426478791</v>
+        <v>1.043487132929904</v>
       </c>
       <c r="K13">
-        <v>1.033544311323633</v>
+        <v>1.045283392699221</v>
       </c>
       <c r="L13">
-        <v>1.031263259275532</v>
+        <v>1.05425114447911</v>
       </c>
       <c r="M13">
-        <v>1.035352976036699</v>
+        <v>1.061758625362957</v>
       </c>
       <c r="N13">
-        <v>1.012873305360664</v>
+        <v>1.01838940077458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9986215743648383</v>
+        <v>1.037017101996336</v>
       </c>
       <c r="D14">
-        <v>1.019418726717666</v>
+        <v>1.041819320648093</v>
       </c>
       <c r="E14">
-        <v>1.017230476812511</v>
+        <v>1.05085276214879</v>
       </c>
       <c r="F14">
-        <v>1.021464011891037</v>
+        <v>1.058402256632255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047777551818832</v>
+        <v>1.043084800721471</v>
       </c>
       <c r="J14">
-        <v>1.028087546294253</v>
+        <v>1.043578013387042</v>
       </c>
       <c r="K14">
-        <v>1.03399999750885</v>
+        <v>1.045368681231686</v>
       </c>
       <c r="L14">
-        <v>1.031851158861817</v>
+        <v>1.054369324134508</v>
       </c>
       <c r="M14">
-        <v>1.036008644521336</v>
+        <v>1.061891881633795</v>
       </c>
       <c r="N14">
-        <v>1.013032383834086</v>
+        <v>1.018419922511538</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9991186047387545</v>
+        <v>1.037110534628507</v>
       </c>
       <c r="D15">
-        <v>1.019791557172785</v>
+        <v>1.041891499010466</v>
       </c>
       <c r="E15">
-        <v>1.017686382294759</v>
+        <v>1.05094509657388</v>
       </c>
       <c r="F15">
-        <v>1.021961687165625</v>
+        <v>1.058503755029226</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04796305405613</v>
+        <v>1.04311266663912</v>
       </c>
       <c r="J15">
-        <v>1.02837678566886</v>
+        <v>1.043634004485763</v>
       </c>
       <c r="K15">
-        <v>1.034279732378405</v>
+        <v>1.045421222277629</v>
       </c>
       <c r="L15">
-        <v>1.032212173879314</v>
+        <v>1.054442144618256</v>
       </c>
       <c r="M15">
-        <v>1.036411295789813</v>
+        <v>1.061973995233852</v>
       </c>
       <c r="N15">
-        <v>1.013130048131239</v>
+        <v>1.018438725788998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001986272064708</v>
+        <v>1.037654547322194</v>
       </c>
       <c r="D16">
-        <v>1.021943966008134</v>
+        <v>1.042311742490668</v>
       </c>
       <c r="E16">
-        <v>1.020319092470467</v>
+        <v>1.05148285661377</v>
       </c>
       <c r="F16">
-        <v>1.02483552214743</v>
+        <v>1.059094906117548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049030005461951</v>
+        <v>1.04327446670614</v>
       </c>
       <c r="J16">
-        <v>1.030044770911592</v>
+        <v>1.043959844931386</v>
       </c>
       <c r="K16">
-        <v>1.035892456459609</v>
+        <v>1.045726910383412</v>
       </c>
       <c r="L16">
-        <v>1.034295291457781</v>
+        <v>1.054866083448672</v>
       </c>
       <c r="M16">
-        <v>1.038734984028896</v>
+        <v>1.062452083744887</v>
       </c>
       <c r="N16">
-        <v>1.013693249993145</v>
+        <v>1.01854813551996</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003763344895229</v>
+        <v>1.037995962287459</v>
       </c>
       <c r="D17">
-        <v>1.023278912533526</v>
+        <v>1.042575467086384</v>
       </c>
       <c r="E17">
-        <v>1.021952565479364</v>
+        <v>1.051820471994125</v>
       </c>
       <c r="F17">
-        <v>1.026618539076908</v>
+        <v>1.05946605876684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049688234598649</v>
+        <v>1.043375614147716</v>
       </c>
       <c r="J17">
-        <v>1.031077667551843</v>
+        <v>1.044164189427563</v>
       </c>
       <c r="K17">
-        <v>1.036890728622796</v>
+        <v>1.045918550805518</v>
       </c>
       <c r="L17">
-        <v>1.035586332019183</v>
+        <v>1.055132089194112</v>
       </c>
       <c r="M17">
-        <v>1.040175408803031</v>
+        <v>1.062752108689489</v>
       </c>
       <c r="N17">
-        <v>1.014042001081255</v>
+        <v>1.018616735544181</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00479224436963</v>
+        <v>1.038195164779478</v>
       </c>
       <c r="D18">
-        <v>1.024052209266584</v>
+        <v>1.042729334840008</v>
       </c>
       <c r="E18">
-        <v>1.022899030670388</v>
+        <v>1.052017502324921</v>
       </c>
       <c r="F18">
-        <v>1.027651634070199</v>
+        <v>1.059682667566606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050068262581879</v>
+        <v>1.043434487022331</v>
       </c>
       <c r="J18">
-        <v>1.03167542103198</v>
+        <v>1.044283362981581</v>
       </c>
       <c r="K18">
-        <v>1.037468295535938</v>
+        <v>1.046030291554909</v>
       </c>
       <c r="L18">
-        <v>1.036333866526879</v>
+        <v>1.05528727430851</v>
       </c>
       <c r="M18">
-        <v>1.041009544369957</v>
+        <v>1.06292715553252</v>
       </c>
       <c r="N18">
-        <v>1.014243823768132</v>
+        <v>1.018656737904405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005141795324024</v>
+        <v>1.038263097975598</v>
       </c>
       <c r="D19">
-        <v>1.024314986595487</v>
+        <v>1.042781806787073</v>
       </c>
       <c r="E19">
-        <v>1.0232206949154</v>
+        <v>1.052084702337175</v>
       </c>
       <c r="F19">
-        <v>1.028002737357753</v>
+        <v>1.05975654617135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050197186536969</v>
+        <v>1.043454539976627</v>
       </c>
       <c r="J19">
-        <v>1.031878449157631</v>
+        <v>1.044323995145785</v>
       </c>
       <c r="K19">
-        <v>1.037664441692062</v>
+        <v>1.046068385467635</v>
       </c>
       <c r="L19">
-        <v>1.036587834306318</v>
+        <v>1.055340193211332</v>
       </c>
       <c r="M19">
-        <v>1.041292952014006</v>
+        <v>1.062986849975599</v>
       </c>
       <c r="N19">
-        <v>1.014312372264581</v>
+        <v>1.01867037581885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003573476092186</v>
+        <v>1.03795932538244</v>
       </c>
       <c r="D20">
-        <v>1.02313624203311</v>
+        <v>1.042547167613082</v>
       </c>
       <c r="E20">
-        <v>1.021777965681195</v>
+        <v>1.051784238188003</v>
       </c>
       <c r="F20">
-        <v>1.026427956755851</v>
+        <v>1.059426224996855</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049618018467364</v>
+        <v>1.043364774879671</v>
       </c>
       <c r="J20">
-        <v>1.030967337841673</v>
+        <v>1.044142266961627</v>
       </c>
       <c r="K20">
-        <v>1.036784112721114</v>
+        <v>1.045897993717604</v>
       </c>
       <c r="L20">
-        <v>1.035448388140907</v>
+        <v>1.05510354634175</v>
       </c>
       <c r="M20">
-        <v>1.040021492802029</v>
+        <v>1.062719913942924</v>
       </c>
       <c r="N20">
-        <v>1.014004749439799</v>
+        <v>1.01860937653255</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9983835698034571</v>
+        <v>1.036972450180494</v>
       </c>
       <c r="D21">
-        <v>1.01924022000153</v>
+        <v>1.041784826054418</v>
       </c>
       <c r="E21">
-        <v>1.017012206773682</v>
+        <v>1.050808637675293</v>
       </c>
       <c r="F21">
-        <v>1.021225742469005</v>
+        <v>1.058353753254979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047688664838148</v>
+        <v>1.043071475556281</v>
       </c>
       <c r="J21">
-        <v>1.027949029104183</v>
+        <v>1.04355125205362</v>
       </c>
       <c r="K21">
-        <v>1.033866024137271</v>
+        <v>1.045343567556301</v>
       </c>
       <c r="L21">
-        <v>1.031678289793123</v>
+        <v>1.054334521898965</v>
       </c>
       <c r="M21">
-        <v>1.035815843958922</v>
+        <v>1.061852638894842</v>
       </c>
       <c r="N21">
-        <v>1.01298561214299</v>
+        <v>1.018410935072492</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9950473431097038</v>
+        <v>1.036352520172802</v>
       </c>
       <c r="D22">
-        <v>1.016739683559503</v>
+        <v>1.041305897519097</v>
       </c>
       <c r="E22">
-        <v>1.013955433918077</v>
+        <v>1.050196195461268</v>
       </c>
       <c r="F22">
-        <v>1.017888769035319</v>
+        <v>1.057680555165549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046438812659321</v>
+        <v>1.042885947689131</v>
       </c>
       <c r="J22">
-        <v>1.026006462878028</v>
+        <v>1.043179510388857</v>
       </c>
       <c r="K22">
-        <v>1.031986661468412</v>
+        <v>1.044994626166003</v>
       </c>
       <c r="L22">
-        <v>1.029255409298855</v>
+        <v>1.05385127091305</v>
       </c>
       <c r="M22">
-        <v>1.033113984864481</v>
+        <v>1.061307784763642</v>
       </c>
       <c r="N22">
-        <v>1.012329681848717</v>
+        <v>1.018286071885699</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9968230895317991</v>
+        <v>1.036681103518437</v>
       </c>
       <c r="D23">
-        <v>1.018070231304887</v>
+        <v>1.041559749510495</v>
       </c>
       <c r="E23">
-        <v>1.015581783118363</v>
+        <v>1.050520771478368</v>
       </c>
       <c r="F23">
-        <v>1.019664226706691</v>
+        <v>1.058037324715184</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047104951012357</v>
+        <v>1.042984405359633</v>
       </c>
       <c r="J23">
-        <v>1.027040621458935</v>
+        <v>1.043376591275241</v>
       </c>
       <c r="K23">
-        <v>1.032987291099046</v>
+        <v>1.045179639568435</v>
       </c>
       <c r="L23">
-        <v>1.030544941235344</v>
+        <v>1.05410742583988</v>
       </c>
       <c r="M23">
-        <v>1.034551911875023</v>
+        <v>1.061596580454223</v>
       </c>
       <c r="N23">
-        <v>1.012678878141298</v>
+        <v>1.018352273108601</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003659293187202</v>
+        <v>1.037975879834697</v>
       </c>
       <c r="D24">
-        <v>1.02320072521166</v>
+        <v>1.042559954798392</v>
       </c>
       <c r="E24">
-        <v>1.021856879284295</v>
+        <v>1.051800610361092</v>
       </c>
       <c r="F24">
-        <v>1.026514094012593</v>
+        <v>1.059444223786902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049649758168471</v>
+        <v>1.043369673063751</v>
       </c>
       <c r="J24">
-        <v>1.031017205643358</v>
+        <v>1.044152172833393</v>
       </c>
       <c r="K24">
-        <v>1.036832302384973</v>
+        <v>1.045907282704062</v>
       </c>
       <c r="L24">
-        <v>1.03551073603239</v>
+        <v>1.05511644354031</v>
       </c>
       <c r="M24">
-        <v>1.04009105944951</v>
+        <v>1.062734461216872</v>
       </c>
       <c r="N24">
-        <v>1.014021586783258</v>
+        <v>1.018612701786783</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011294621002341</v>
+        <v>1.039480780795649</v>
       </c>
       <c r="D25">
-        <v>1.028945499590906</v>
+        <v>1.043722265983096</v>
       </c>
       <c r="E25">
-        <v>1.028892698003647</v>
+        <v>1.05328990512589</v>
       </c>
       <c r="F25">
-        <v>1.034193675049606</v>
+        <v>1.061081621782915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052450341484174</v>
+        <v>1.043811859963243</v>
       </c>
       <c r="J25">
-        <v>1.035447764410483</v>
+        <v>1.045051516148775</v>
       </c>
       <c r="K25">
-        <v>1.041110497067527</v>
+        <v>1.046750104222225</v>
       </c>
       <c r="L25">
-        <v>1.041058457796115</v>
+        <v>1.056288464363962</v>
       </c>
       <c r="M25">
-        <v>1.046283394120179</v>
+        <v>1.064056761760812</v>
       </c>
       <c r="N25">
-        <v>1.015517374472869</v>
+        <v>1.01891448676089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040682962810709</v>
+        <v>1.017165226613921</v>
       </c>
       <c r="D2">
-        <v>1.044650579505955</v>
+        <v>1.033372136953664</v>
       </c>
       <c r="E2">
-        <v>1.054481022958382</v>
+        <v>1.03432280041582</v>
       </c>
       <c r="F2">
-        <v>1.062391396068169</v>
+        <v>1.040120469762631</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044160574827285</v>
+        <v>1.054568781673968</v>
       </c>
       <c r="J2">
-        <v>1.0457682464687</v>
+        <v>1.038844375695794</v>
       </c>
       <c r="K2">
-        <v>1.047421032056998</v>
+        <v>1.044385327853172</v>
       </c>
       <c r="L2">
-        <v>1.057224115175593</v>
+        <v>1.045323809417871</v>
       </c>
       <c r="M2">
-        <v>1.065112870021561</v>
+        <v>1.051047788389205</v>
       </c>
       <c r="N2">
-        <v>1.01915482959033</v>
+        <v>1.016663795367947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041556920506355</v>
+        <v>1.021310024912908</v>
       </c>
       <c r="D3">
-        <v>1.045325319583083</v>
+        <v>1.036502097821751</v>
       </c>
       <c r="E3">
-        <v>1.055347744267757</v>
+        <v>1.038167825302871</v>
       </c>
       <c r="F3">
-        <v>1.063344579854361</v>
+        <v>1.044317298837934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044411456751314</v>
+        <v>1.056043578480219</v>
       </c>
       <c r="J3">
-        <v>1.046288299394156</v>
+        <v>1.041236146540667</v>
       </c>
       <c r="K3">
-        <v>1.047907409356284</v>
+        <v>1.046688295735104</v>
       </c>
       <c r="L3">
-        <v>1.057903951514892</v>
+        <v>1.048334566633821</v>
       </c>
       <c r="M3">
-        <v>1.06588051273279</v>
+        <v>1.054412874828879</v>
       </c>
       <c r="N3">
-        <v>1.019329123768549</v>
+        <v>1.017470825928951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042122916122461</v>
+        <v>1.02394036068953</v>
       </c>
       <c r="D4">
-        <v>1.045762237462051</v>
+        <v>1.038490265130453</v>
       </c>
       <c r="E4">
-        <v>1.05590942465319</v>
+        <v>1.040612939774842</v>
       </c>
       <c r="F4">
-        <v>1.063962349535457</v>
+        <v>1.046986235621356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044572718385198</v>
+        <v>1.056969609085446</v>
       </c>
       <c r="J4">
-        <v>1.046624637172694</v>
+        <v>1.042750880818581</v>
       </c>
       <c r="K4">
-        <v>1.048221762584779</v>
+        <v>1.048145322331997</v>
       </c>
       <c r="L4">
-        <v>1.058344061627675</v>
+        <v>1.050244718417029</v>
       </c>
       <c r="M4">
-        <v>1.066377597984379</v>
+        <v>1.0565488161629</v>
       </c>
       <c r="N4">
-        <v>1.019441801398388</v>
+        <v>1.017981796071601</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042360975840898</v>
+        <v>1.025034197471304</v>
       </c>
       <c r="D5">
-        <v>1.045945991837236</v>
+        <v>1.039317457976384</v>
       </c>
       <c r="E5">
-        <v>1.05614575791192</v>
+        <v>1.041630930220444</v>
       </c>
       <c r="F5">
-        <v>1.064222296785902</v>
+        <v>1.048097444866194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044640254537769</v>
+        <v>1.057352295535537</v>
       </c>
       <c r="J5">
-        <v>1.046765991508257</v>
+        <v>1.043380016761965</v>
       </c>
       <c r="K5">
-        <v>1.04835382809211</v>
+        <v>1.048750129089407</v>
       </c>
       <c r="L5">
-        <v>1.058529133027847</v>
+        <v>1.051038914281315</v>
       </c>
       <c r="M5">
-        <v>1.066586659600242</v>
+        <v>1.057437131352345</v>
       </c>
       <c r="N5">
-        <v>1.019489146157459</v>
+        <v>1.018193989950075</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042400953829992</v>
+        <v>1.025217167726153</v>
       </c>
       <c r="D6">
-        <v>1.045976849305916</v>
+        <v>1.039455848289492</v>
       </c>
       <c r="E6">
-        <v>1.056185451154301</v>
+        <v>1.04180128194145</v>
       </c>
       <c r="F6">
-        <v>1.064265956917858</v>
+        <v>1.048283398133371</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04465157899136</v>
+        <v>1.057416166465578</v>
       </c>
       <c r="J6">
-        <v>1.046789723025254</v>
+        <v>1.043485208529145</v>
       </c>
       <c r="K6">
-        <v>1.048375997244672</v>
+        <v>1.048851231559845</v>
       </c>
       <c r="L6">
-        <v>1.058560210172417</v>
+        <v>1.05117175290953</v>
       </c>
       <c r="M6">
-        <v>1.066621767025586</v>
+        <v>1.057585726862049</v>
       </c>
       <c r="N6">
-        <v>1.019497094077746</v>
+        <v>1.018229466724602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042126096637208</v>
+        <v>1.023955023049731</v>
       </c>
       <c r="D7">
-        <v>1.045764692507775</v>
+        <v>1.038501351711375</v>
       </c>
       <c r="E7">
-        <v>1.055912581754755</v>
+        <v>1.040626580828394</v>
       </c>
       <c r="F7">
-        <v>1.063965822034549</v>
+        <v>1.047001125662407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044573621822149</v>
+        <v>1.056974748367131</v>
       </c>
       <c r="J7">
-        <v>1.046626526122878</v>
+        <v>1.042759317173421</v>
       </c>
       <c r="K7">
-        <v>1.04822352760004</v>
+        <v>1.048153433882462</v>
       </c>
       <c r="L7">
-        <v>1.05834653436944</v>
+        <v>1.050255364858238</v>
       </c>
       <c r="M7">
-        <v>1.066380391135896</v>
+        <v>1.056560723343741</v>
       </c>
       <c r="N7">
-        <v>1.019442434119797</v>
+        <v>1.017984641611358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040978219369041</v>
+        <v>1.018576918674743</v>
       </c>
       <c r="D8">
-        <v>1.044878544735816</v>
+        <v>1.03443776669981</v>
       </c>
       <c r="E8">
-        <v>1.054773757769902</v>
+        <v>1.035631324281381</v>
       </c>
       <c r="F8">
-        <v>1.062713321807941</v>
+        <v>1.041548701627864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044245583865913</v>
+        <v>1.055073139898174</v>
       </c>
       <c r="J8">
-        <v>1.045944035601471</v>
+        <v>1.039659632962007</v>
       </c>
       <c r="K8">
-        <v>1.047585480534606</v>
+        <v>1.045170618600923</v>
       </c>
       <c r="L8">
-        <v>1.057453824676187</v>
+        <v>1.046349344031915</v>
       </c>
       <c r="M8">
-        <v>1.065372221215492</v>
+        <v>1.052193811408894</v>
       </c>
       <c r="N8">
-        <v>1.019213754070303</v>
+        <v>1.016938904796698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038959297665824</v>
+        <v>1.008685544533321</v>
       </c>
       <c r="D9">
-        <v>1.043319526598338</v>
+        <v>1.026980795702307</v>
       </c>
       <c r="E9">
-        <v>1.052773612133121</v>
+        <v>1.026485170551544</v>
       </c>
       <c r="F9">
-        <v>1.060513954497015</v>
+        <v>1.031565913898601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043659331204626</v>
+        <v>1.051498750238572</v>
       </c>
       <c r="J9">
-        <v>1.044740135965017</v>
+        <v>1.033935278391005</v>
       </c>
       <c r="K9">
-        <v>1.046458410569969</v>
+        <v>1.039650786147565</v>
       </c>
       <c r="L9">
-        <v>1.055882425892225</v>
+        <v>1.039162677325277</v>
       </c>
       <c r="M9">
-        <v>1.063598584953197</v>
+        <v>1.044166805267908</v>
       </c>
       <c r="N9">
-        <v>1.018810024849428</v>
+        <v>1.015006786864604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037615972418149</v>
+        <v>1.001784398291305</v>
       </c>
       <c r="D10">
-        <v>1.042281944745957</v>
+        <v>1.021792370790556</v>
       </c>
       <c r="E10">
-        <v>1.051444717069088</v>
+        <v>1.020133628867694</v>
       </c>
       <c r="F10">
-        <v>1.059052978804896</v>
+        <v>1.024633076581847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043263019212566</v>
+        <v>1.048955085508574</v>
       </c>
       <c r="J10">
-        <v>1.043936749743083</v>
+        <v>1.029927397704979</v>
       </c>
       <c r="K10">
-        <v>1.045705247802732</v>
+        <v>1.035778997760147</v>
       </c>
       <c r="L10">
-        <v>1.054836026120661</v>
+        <v>1.034148636926915</v>
       </c>
       <c r="M10">
-        <v>1.062418184480019</v>
+        <v>1.038571374534345</v>
       </c>
       <c r="N10">
-        <v>1.018540381595308</v>
+        <v>1.013653619066955</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037034935990106</v>
+        <v>0.9987165483358158</v>
       </c>
       <c r="D11">
-        <v>1.041833097784394</v>
+        <v>1.01948996291339</v>
       </c>
       <c r="E11">
-        <v>1.050870385973797</v>
+        <v>1.017317583407091</v>
       </c>
       <c r="F11">
-        <v>1.05842162950438</v>
+        <v>1.021559099489887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043090121376833</v>
+        <v>1.047813010944604</v>
       </c>
       <c r="J11">
-        <v>1.043588701362182</v>
+        <v>1.028142818043245</v>
       </c>
       <c r="K11">
-        <v>1.045378710924994</v>
+        <v>1.034053454739677</v>
       </c>
       <c r="L11">
-        <v>1.054383224004327</v>
+        <v>1.031920141744165</v>
       </c>
       <c r="M11">
-        <v>1.061907555175213</v>
+        <v>1.03608558203031</v>
       </c>
       <c r="N11">
-        <v>1.01842351187532</v>
+        <v>1.013051046865329</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036819209456296</v>
+        <v>0.9975644313539944</v>
       </c>
       <c r="D12">
-        <v>1.041666442598998</v>
+        <v>1.018625975829015</v>
       </c>
       <c r="E12">
-        <v>1.050657219030233</v>
+        <v>1.016261194522081</v>
       </c>
       <c r="F12">
-        <v>1.058187309543609</v>
+        <v>1.020405909163234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043025705966549</v>
+        <v>1.047382456212492</v>
       </c>
       <c r="J12">
-        <v>1.04345939517601</v>
+        <v>1.027472227702362</v>
       </c>
       <c r="K12">
-        <v>1.045257359715717</v>
+        <v>1.033404824820532</v>
       </c>
       <c r="L12">
-        <v>1.054215078865937</v>
+        <v>1.031083348846041</v>
       </c>
       <c r="M12">
-        <v>1.061717959976923</v>
+        <v>1.035152335172773</v>
       </c>
       <c r="N12">
-        <v>1.018380084774702</v>
+        <v>1.012824615036076</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03686547915334</v>
+        <v>0.9978121440814586</v>
       </c>
       <c r="D13">
-        <v>1.041702187665354</v>
+        <v>1.01881170737978</v>
       </c>
       <c r="E13">
-        <v>1.050702936562787</v>
+        <v>1.016488271816167</v>
       </c>
       <c r="F13">
-        <v>1.058237563289762</v>
+        <v>1.020653796666755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043039532034193</v>
+        <v>1.047475102299918</v>
       </c>
       <c r="J13">
-        <v>1.043487132929904</v>
+        <v>1.02761642647879</v>
       </c>
       <c r="K13">
-        <v>1.045283392699221</v>
+        <v>1.033544311323632</v>
       </c>
       <c r="L13">
-        <v>1.05425114447911</v>
+        <v>1.031263259275531</v>
       </c>
       <c r="M13">
-        <v>1.061758625362957</v>
+        <v>1.035352976036698</v>
       </c>
       <c r="N13">
-        <v>1.01838940077458</v>
+        <v>1.012873305360664</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037017101996336</v>
+        <v>0.9986215743648389</v>
       </c>
       <c r="D14">
-        <v>1.041819320648093</v>
+        <v>1.019418726717667</v>
       </c>
       <c r="E14">
-        <v>1.05085276214879</v>
+        <v>1.017230476812512</v>
       </c>
       <c r="F14">
-        <v>1.058402256632255</v>
+        <v>1.021464011891038</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043084800721471</v>
+        <v>1.047777551818833</v>
       </c>
       <c r="J14">
-        <v>1.043578013387042</v>
+        <v>1.028087546294253</v>
       </c>
       <c r="K14">
-        <v>1.045368681231686</v>
+        <v>1.033999997508851</v>
       </c>
       <c r="L14">
-        <v>1.054369324134508</v>
+        <v>1.031851158861818</v>
       </c>
       <c r="M14">
-        <v>1.061891881633795</v>
+        <v>1.036008644521336</v>
       </c>
       <c r="N14">
-        <v>1.018419922511538</v>
+        <v>1.013032383834086</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037110534628507</v>
+        <v>0.9991186047387537</v>
       </c>
       <c r="D15">
-        <v>1.041891499010466</v>
+        <v>1.019791557172784</v>
       </c>
       <c r="E15">
-        <v>1.05094509657388</v>
+        <v>1.017686382294758</v>
       </c>
       <c r="F15">
-        <v>1.058503755029226</v>
+        <v>1.021961687165624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04311266663912</v>
+        <v>1.04796305405613</v>
       </c>
       <c r="J15">
-        <v>1.043634004485763</v>
+        <v>1.02837678566886</v>
       </c>
       <c r="K15">
-        <v>1.045421222277629</v>
+        <v>1.034279732378404</v>
       </c>
       <c r="L15">
-        <v>1.054442144618256</v>
+        <v>1.032212173879314</v>
       </c>
       <c r="M15">
-        <v>1.061973995233852</v>
+        <v>1.036411295789812</v>
       </c>
       <c r="N15">
-        <v>1.018438725788998</v>
+        <v>1.013130048131239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037654547322194</v>
+        <v>1.001986272064707</v>
       </c>
       <c r="D16">
-        <v>1.042311742490668</v>
+        <v>1.021943966008133</v>
       </c>
       <c r="E16">
-        <v>1.05148285661377</v>
+        <v>1.020319092470466</v>
       </c>
       <c r="F16">
-        <v>1.059094906117548</v>
+        <v>1.024835522147429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04327446670614</v>
+        <v>1.049030005461949</v>
       </c>
       <c r="J16">
-        <v>1.043959844931386</v>
+        <v>1.030044770911591</v>
       </c>
       <c r="K16">
-        <v>1.045726910383412</v>
+        <v>1.035892456459607</v>
       </c>
       <c r="L16">
-        <v>1.054866083448672</v>
+        <v>1.034295291457779</v>
       </c>
       <c r="M16">
-        <v>1.062452083744887</v>
+        <v>1.038734984028895</v>
       </c>
       <c r="N16">
-        <v>1.01854813551996</v>
+        <v>1.013693249993145</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037995962287459</v>
+        <v>1.003763344895229</v>
       </c>
       <c r="D17">
-        <v>1.042575467086384</v>
+        <v>1.023278912533526</v>
       </c>
       <c r="E17">
-        <v>1.051820471994125</v>
+        <v>1.021952565479363</v>
       </c>
       <c r="F17">
-        <v>1.05946605876684</v>
+        <v>1.026618539076906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043375614147716</v>
+        <v>1.049688234598649</v>
       </c>
       <c r="J17">
-        <v>1.044164189427563</v>
+        <v>1.031077667551842</v>
       </c>
       <c r="K17">
-        <v>1.045918550805518</v>
+        <v>1.036890728622796</v>
       </c>
       <c r="L17">
-        <v>1.055132089194112</v>
+        <v>1.035586332019182</v>
       </c>
       <c r="M17">
-        <v>1.062752108689489</v>
+        <v>1.04017540880303</v>
       </c>
       <c r="N17">
-        <v>1.018616735544181</v>
+        <v>1.014042001081255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038195164779478</v>
+        <v>1.004792244369629</v>
       </c>
       <c r="D18">
-        <v>1.042729334840008</v>
+        <v>1.024052209266583</v>
       </c>
       <c r="E18">
-        <v>1.052017502324921</v>
+        <v>1.022899030670387</v>
       </c>
       <c r="F18">
-        <v>1.059682667566606</v>
+        <v>1.027651634070198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043434487022331</v>
+        <v>1.050068262581879</v>
       </c>
       <c r="J18">
-        <v>1.044283362981581</v>
+        <v>1.031675421031979</v>
       </c>
       <c r="K18">
-        <v>1.046030291554909</v>
+        <v>1.037468295535937</v>
       </c>
       <c r="L18">
-        <v>1.05528727430851</v>
+        <v>1.036333866526879</v>
       </c>
       <c r="M18">
-        <v>1.06292715553252</v>
+        <v>1.041009544369957</v>
       </c>
       <c r="N18">
-        <v>1.018656737904405</v>
+        <v>1.014243823768132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038263097975598</v>
+        <v>1.005141795324026</v>
       </c>
       <c r="D19">
-        <v>1.042781806787073</v>
+        <v>1.024314986595489</v>
       </c>
       <c r="E19">
-        <v>1.052084702337175</v>
+        <v>1.023220694915401</v>
       </c>
       <c r="F19">
-        <v>1.05975654617135</v>
+        <v>1.028002737357754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043454539976627</v>
+        <v>1.05019718653697</v>
       </c>
       <c r="J19">
-        <v>1.044323995145785</v>
+        <v>1.031878449157632</v>
       </c>
       <c r="K19">
-        <v>1.046068385467635</v>
+        <v>1.037664441692063</v>
       </c>
       <c r="L19">
-        <v>1.055340193211332</v>
+        <v>1.036587834306319</v>
       </c>
       <c r="M19">
-        <v>1.062986849975599</v>
+        <v>1.041292952014008</v>
       </c>
       <c r="N19">
-        <v>1.01867037581885</v>
+        <v>1.014312372264581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03795932538244</v>
+        <v>1.003573476092185</v>
       </c>
       <c r="D20">
-        <v>1.042547167613082</v>
+        <v>1.023136242033109</v>
       </c>
       <c r="E20">
-        <v>1.051784238188003</v>
+        <v>1.021777965681194</v>
       </c>
       <c r="F20">
-        <v>1.059426224996855</v>
+        <v>1.02642795675585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043364774879671</v>
+        <v>1.049618018467363</v>
       </c>
       <c r="J20">
-        <v>1.044142266961627</v>
+        <v>1.030967337841672</v>
       </c>
       <c r="K20">
-        <v>1.045897993717604</v>
+        <v>1.036784112721113</v>
       </c>
       <c r="L20">
-        <v>1.05510354634175</v>
+        <v>1.035448388140906</v>
       </c>
       <c r="M20">
-        <v>1.062719913942924</v>
+        <v>1.040021492802027</v>
       </c>
       <c r="N20">
-        <v>1.01860937653255</v>
+        <v>1.014004749439798</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036972450180494</v>
+        <v>0.9983835698034567</v>
       </c>
       <c r="D21">
-        <v>1.041784826054418</v>
+        <v>1.01924022000153</v>
       </c>
       <c r="E21">
-        <v>1.050808637675293</v>
+        <v>1.017012206773681</v>
       </c>
       <c r="F21">
-        <v>1.058353753254979</v>
+        <v>1.021225742469005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043071475556281</v>
+        <v>1.047688664838148</v>
       </c>
       <c r="J21">
-        <v>1.04355125205362</v>
+        <v>1.027949029104182</v>
       </c>
       <c r="K21">
-        <v>1.045343567556301</v>
+        <v>1.033866024137271</v>
       </c>
       <c r="L21">
-        <v>1.054334521898965</v>
+        <v>1.031678289793122</v>
       </c>
       <c r="M21">
-        <v>1.061852638894842</v>
+        <v>1.035815843958922</v>
       </c>
       <c r="N21">
-        <v>1.018410935072492</v>
+        <v>1.012985612142989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036352520172802</v>
+        <v>0.9950473431097039</v>
       </c>
       <c r="D22">
-        <v>1.041305897519097</v>
+        <v>1.016739683559504</v>
       </c>
       <c r="E22">
-        <v>1.050196195461268</v>
+        <v>1.013955433918077</v>
       </c>
       <c r="F22">
-        <v>1.057680555165549</v>
+        <v>1.017888769035319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042885947689131</v>
+        <v>1.046438812659321</v>
       </c>
       <c r="J22">
-        <v>1.043179510388857</v>
+        <v>1.026006462878028</v>
       </c>
       <c r="K22">
-        <v>1.044994626166003</v>
+        <v>1.031986661468412</v>
       </c>
       <c r="L22">
-        <v>1.05385127091305</v>
+        <v>1.029255409298855</v>
       </c>
       <c r="M22">
-        <v>1.061307784763642</v>
+        <v>1.033113984864481</v>
       </c>
       <c r="N22">
-        <v>1.018286071885699</v>
+        <v>1.012329681848716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036681103518437</v>
+        <v>0.996823089531799</v>
       </c>
       <c r="D23">
-        <v>1.041559749510495</v>
+        <v>1.018070231304887</v>
       </c>
       <c r="E23">
-        <v>1.050520771478368</v>
+        <v>1.015581783118363</v>
       </c>
       <c r="F23">
-        <v>1.058037324715184</v>
+        <v>1.019664226706691</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042984405359633</v>
+        <v>1.047104951012356</v>
       </c>
       <c r="J23">
-        <v>1.043376591275241</v>
+        <v>1.027040621458935</v>
       </c>
       <c r="K23">
-        <v>1.045179639568435</v>
+        <v>1.032987291099045</v>
       </c>
       <c r="L23">
-        <v>1.05410742583988</v>
+        <v>1.030544941235344</v>
       </c>
       <c r="M23">
-        <v>1.061596580454223</v>
+        <v>1.034551911875024</v>
       </c>
       <c r="N23">
-        <v>1.018352273108601</v>
+        <v>1.012678878141297</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037975879834697</v>
+        <v>1.0036592931872</v>
       </c>
       <c r="D24">
-        <v>1.042559954798392</v>
+        <v>1.023200725211659</v>
       </c>
       <c r="E24">
-        <v>1.051800610361092</v>
+        <v>1.021856879284293</v>
       </c>
       <c r="F24">
-        <v>1.059444223786902</v>
+        <v>1.026514094012591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043369673063751</v>
+        <v>1.04964975816847</v>
       </c>
       <c r="J24">
-        <v>1.044152172833393</v>
+        <v>1.031017205643356</v>
       </c>
       <c r="K24">
-        <v>1.045907282704062</v>
+        <v>1.036832302384971</v>
       </c>
       <c r="L24">
-        <v>1.05511644354031</v>
+        <v>1.035510736032388</v>
       </c>
       <c r="M24">
-        <v>1.062734461216872</v>
+        <v>1.040091059449509</v>
       </c>
       <c r="N24">
-        <v>1.018612701786783</v>
+        <v>1.014021586783257</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039480780795649</v>
+        <v>1.011294621002341</v>
       </c>
       <c r="D25">
-        <v>1.043722265983096</v>
+        <v>1.028945499590906</v>
       </c>
       <c r="E25">
-        <v>1.05328990512589</v>
+        <v>1.028892698003646</v>
       </c>
       <c r="F25">
-        <v>1.061081621782915</v>
+        <v>1.034193675049605</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043811859963243</v>
+        <v>1.052450341484174</v>
       </c>
       <c r="J25">
-        <v>1.045051516148775</v>
+        <v>1.035447764410483</v>
       </c>
       <c r="K25">
-        <v>1.046750104222225</v>
+        <v>1.041110497067527</v>
       </c>
       <c r="L25">
-        <v>1.056288464363962</v>
+        <v>1.041058457796114</v>
       </c>
       <c r="M25">
-        <v>1.064056761760812</v>
+        <v>1.046283394120178</v>
       </c>
       <c r="N25">
-        <v>1.01891448676089</v>
+        <v>1.015517374472869</v>
       </c>
     </row>
   </sheetData>
